--- a/biology/Botanique/Nothovernonia_purpurea/Nothovernonia_purpurea.xlsx
+++ b/biology/Botanique/Nothovernonia_purpurea/Nothovernonia_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nothovernonia purpurea est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Vernonia présente en Afrique tropicale[3]. Elle s'appelait Vernonia purpurea et a été renommée Nothovernonia purpurea en 2011[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nothovernonia purpurea est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Vernonia présente en Afrique tropicale. Elle s'appelait Vernonia purpurea et a été renommée Nothovernonia purpurea en 2011.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace dressée, à souche ligneuse, dont la hauteur est comprise entre 30 cm et 2 m de hauteur. Sa corolle est pourpre ou mauve[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace dressée, à souche ligneuse, dont la hauteur est comprise entre 30 cm et 2 m de hauteur. Sa corolle est pourpre ou mauve.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale et également en Afrique du Sud[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale et également en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans la savane, les forêts claires, au bord des routes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans la savane, les forêts claires, au bord des routes.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 juin 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Vernonia purpurea var. purpurea
 variété Vernonia purpurea var. schnellii C.D. Adams</t>
         </is>
